--- a/output.xlsx
+++ b/output.xlsx
@@ -55,12 +55,12 @@
     <t>-10,00 DH</t>
   </si>
   <si>
+    <t>-100,00 DH</t>
+  </si>
+  <si>
     <t>-21,00 DH</t>
   </si>
   <si>
-    <t>-100,00 DH</t>
-  </si>
-  <si>
     <t>-104,00 DH</t>
   </si>
   <si>
@@ -70,13 +70,19 @@
     <t>En stock</t>
   </si>
   <si>
+    <t>Epson</t>
+  </si>
+  <si>
+    <t>Iris.ma partenaire de HP agréé</t>
+  </si>
+  <si>
     <t>Canon</t>
   </si>
   <si>
-    <t>Iris.ma partenaire de HP agréé</t>
-  </si>
-  <si>
-    <t>Epson</t>
+    <t>Rouleau étiquette Epson Premium Matte 76mm x 51mm, 650 étiquettes pour C3500/3400 (C33S045534)</t>
+  </si>
+  <si>
+    <t>Papier photo à dos adhésif ZINK HP Sprocket, 20 feuilles, 5 x 7,6 cm (W4Z13A)</t>
   </si>
   <si>
     <t>Ramette papier Canon Eclat 80 - 500 feuilles A4 de 80g/m² (0255V273)</t>
@@ -85,73 +91,10 @@
     <t>Papier Photos Canon PT-101 - Pro Platinum - 20 feuilles A4 de 300 g/m² (2768B016AC)</t>
   </si>
   <si>
-    <t>Papier photo à dos adhésif ZINK HP Sprocket, 20 feuilles, 5 x 7,6 cm (W4Z13A)</t>
-  </si>
-  <si>
-    <t>Rouleau étiquette Epson Premium Matte 76mm x 51mm, 650 étiquettes pour C3500/3400 (C33S045534)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Papier jet d’encre blanc brillant HP (914 mm x 45,7 m) (C6036A) </t>
   </si>
   <si>
     <t>Papier Photo Canon + encre  KP-108IN - 108 tirages (3115B001AA)</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
-                      var ccs_cc_args = ccs_cc_args || [];
-                    ccs_cc_args.push(['cpn', 'CPN']);
-                    ccs_cc_args.push(['mf', 'Canon']);
-                    ccs_cc_args.push(['pn', '0255V273']);
-                    ccs_cc_args.push(['lang', 'fr']);
-                    ccs_cc_args.push(['market', 'FR']);
-                    (function () {
-                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
-                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
-                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
-                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
-                    })();
-                    &lt;/script&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
-                      var ccs_cc_args = ccs_cc_args || [];
-                    ccs_cc_args.push(['cpn', 'CPN']);
-                    ccs_cc_args.push(['mf', 'Canon']);
-                    ccs_cc_args.push(['pn', '2768B016AC']);
-                    ccs_cc_args.push(['lang', 'fr']);
-                    ccs_cc_args.push(['market', 'FR']);
-                    (function () {
-                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
-                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
-                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
-                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
-                    })();
-                    &lt;/script&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
-                      var ccs_cc_args = ccs_cc_args || [];
-                    ccs_cc_args.push(['cpn', 'CPN']);
-                    ccs_cc_args.push(['mf', 'HP']);
-                    ccs_cc_args.push(['pn', 'W4Z13A']);
-                    ccs_cc_args.push(['lang', 'fr']);
-                    ccs_cc_args.push(['market', 'MA']);
-                    (function () {
-                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
-                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
-                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
-                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
-                    })();
-                    &lt;/script&gt;
-&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div class="product-description"&gt;
@@ -185,6 +128,63 @@
                       var ccs_cc_args = ccs_cc_args || [];
                     ccs_cc_args.push(['cpn', 'CPN']);
                     ccs_cc_args.push(['mf', 'HP']);
+                    ccs_cc_args.push(['pn', 'W4Z13A']);
+                    ccs_cc_args.push(['lang', 'fr']);
+                    ccs_cc_args.push(['market', 'MA']);
+                    (function () {
+                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
+                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
+                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
+                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
+                    })();
+                    &lt;/script&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="product-description"&gt;
+&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
+&lt;script&gt;
+                      var ccs_cc_args = ccs_cc_args || [];
+                    ccs_cc_args.push(['cpn', 'CPN']);
+                    ccs_cc_args.push(['mf', 'Canon']);
+                    ccs_cc_args.push(['pn', '0255V273']);
+                    ccs_cc_args.push(['lang', 'fr']);
+                    ccs_cc_args.push(['market', 'FR']);
+                    (function () {
+                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
+                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
+                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
+                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
+                    })();
+                    &lt;/script&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="product-description"&gt;
+&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
+&lt;script&gt;
+                      var ccs_cc_args = ccs_cc_args || [];
+                    ccs_cc_args.push(['cpn', 'CPN']);
+                    ccs_cc_args.push(['mf', 'Canon']);
+                    ccs_cc_args.push(['pn', '2768B016AC']);
+                    ccs_cc_args.push(['lang', 'fr']);
+                    ccs_cc_args.push(['market', 'FR']);
+                    (function () {
+                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
+                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
+                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
+                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
+                    })();
+                    &lt;/script&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="product-description"&gt;
+&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
+&lt;script&gt;
+                      var ccs_cc_args = ccs_cc_args || [];
+                    ccs_cc_args.push(['cpn', 'CPN']);
+                    ccs_cc_args.push(['mf', 'HP']);
                     ccs_cc_args.push(['pn', 'C6036A']);
                     ccs_cc_args.push(['lang', 'fr']);
                     ccs_cc_args.push(['market', 'MA']);
@@ -217,13 +217,19 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Papier A4 &lt;sup&gt;&lt;a href="https://www.iris.ma/13520-ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.html"&gt;1&lt;/a&gt;&lt;/sup&gt; Ultra Blanc multifonction&lt;br/&gt;Ramette 500 Feuilles&lt;br/&gt;Papier 80g&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Transformez vos moments favoris en instantanés ou en autocollants 5 x 7,6 cm (2 x 3 po) résistants aux taches et riches en couleurs grâce au papier Photo HP ZINK™. Chargez facilement le papier dans votre imprimante photo HP Sprocket et commencez &lt;sup&gt;&lt;a href="https://www.iris.ma/12089-papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.html"&gt;1&lt;/a&gt;&lt;/sup&gt; à imprimer des photos à partager avec votre famille et vos amis.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Transformez vos moments favoris en &lt;sup&gt;&lt;a href="https://www.iris.ma/12089-papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.html"&gt;1&lt;/a&gt;&lt;/sup&gt; instantanés ou en autocollants 5 x 7,6 cm (2 x 3 po) résistants aux taches et riches en couleurs grâce au papier Photo HP ZINK™. Chargez facilement le papier dans votre imprimante photo HP Sprocket et commencez à imprimer des photos à partager avec votre famille et vos amis.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Papier A4 Ultra Blanc multifonction&lt;br/&gt;Ramette &lt;sup&gt;&lt;a href="https://www.iris.ma/13520-ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.html"&gt;1&lt;/a&gt;&lt;/sup&gt; 500 Feuilles&lt;br/&gt;Papier 80g&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>C33S045534</t>
+  </si>
+  <si>
+    <t>W4Z13A</t>
   </si>
   <si>
     <t>0255V273</t>
@@ -232,46 +238,40 @@
     <t>2768B016AC</t>
   </si>
   <si>
-    <t>W4Z13A</t>
-  </si>
-  <si>
-    <t>C33S045534</t>
-  </si>
-  <si>
     <t>C6036A</t>
   </si>
   <si>
     <t>3115B001AA</t>
   </si>
   <si>
+    <t>['https://www.iris.ma/51452-large_default/rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.jpg']</t>
+  </si>
+  <si>
+    <t>['https://www.iris.ma/48916-large_default/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg', 'https://www.iris.ma/48916/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg', 'https://www.iris.ma/48917/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg']</t>
+  </si>
+  <si>
     <t>['https://www.iris.ma/55856-large_default/ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.jpg']</t>
   </si>
   <si>
     <t>['https://www.iris.ma/35253-large_default/papier-photos-canon-pt-101-pro-platinum-20-feuilles-a4-de-300-g-m-2768b016ac.jpg']</t>
   </si>
   <si>
-    <t>['https://www.iris.ma/48916-large_default/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg', 'https://www.iris.ma/48916/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg', 'https://www.iris.ma/48917/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg']</t>
-  </si>
-  <si>
-    <t>['https://www.iris.ma/51452-large_default/rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.jpg']</t>
-  </si>
-  <si>
     <t>['https://www.iris.ma/52101-large_default/papier-jet-dencre-blanc-brillant-hp-914-mm-x-457-m-c6036a.jpg']</t>
   </si>
   <si>
     <t>['https://www.iris.ma/46942-large_default/papier-photo-canon-encre-kp-108in-3115b001aa.jpg', 'https://www.iris.ma/46942/papier-photo-canon-encre-kp-108in-3115b001aa.jpg', 'https://www.iris.ma/46943/papier-photo-canon-encre-kp-108in-3115b001aa.jpg']</t>
   </si>
   <si>
+    <t>94,00</t>
+  </si>
+  <si>
+    <t>100,00</t>
+  </si>
+  <si>
     <t>133,00</t>
   </si>
   <si>
     <t>298,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>94,00</t>
   </si>
   <si>
     <t>730,00</t>
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -789,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -804,7 +804,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
@@ -839,7 +839,7 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -874,7 +874,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>categorie</t>
   </si>
   <si>
+    <t>disponibilite</t>
+  </si>
+  <si>
     <t>remise</t>
   </si>
   <si>
     <t>nouveau</t>
   </si>
   <si>
-    <t>disponibilite</t>
-  </si>
-  <si>
     <t>partenaire</t>
   </si>
   <si>
@@ -52,54 +52,268 @@
     <t>Papier</t>
   </si>
   <si>
-    <t>-10,00 DH</t>
-  </si>
-  <si>
-    <t>-100,00 DH</t>
-  </si>
-  <si>
-    <t>-21,00 DH</t>
-  </si>
-  <si>
-    <t>-104,00 DH</t>
-  </si>
-  <si>
-    <t>-108,00 DH</t>
+    <t>Quantité limitée</t>
+  </si>
+  <si>
+    <t>En rupture de stock</t>
   </si>
   <si>
     <t>En stock</t>
   </si>
   <si>
+    <t>-10,00 DH</t>
+  </si>
+  <si>
+    <t>-21,00 DH</t>
+  </si>
+  <si>
+    <t>-100,00 DH</t>
+  </si>
+  <si>
+    <t>-104,00 DH</t>
+  </si>
+  <si>
+    <t>-108,00 DH</t>
+  </si>
+  <si>
     <t>Epson</t>
   </si>
   <si>
+    <t>Canon</t>
+  </si>
+  <si>
     <t>Iris.ma partenaire de HP agréé</t>
   </si>
   <si>
-    <t>Canon</t>
-  </si>
-  <si>
     <t>Rouleau étiquette Epson Premium Matte 76mm x 51mm, 650 étiquettes pour C3500/3400 (C33S045534)</t>
   </si>
   <si>
+    <t>Papier Photos Canon PT-101 - Pro Platinum - 20 feuilles A4 de 300 g/m² (2768B016AC)</t>
+  </si>
+  <si>
     <t>Papier photo à dos adhésif ZINK HP Sprocket, 20 feuilles, 5 x 7,6 cm (W4Z13A)</t>
   </si>
   <si>
+    <t>Papier jet d’encre blanc brillant HP (914 mm x 45,7 m) (C6036A)</t>
+  </si>
+  <si>
     <t>Ramette papier Canon Eclat 80 - 500 feuilles A4 de 80g/m² (0255V273)</t>
   </si>
   <si>
-    <t>Papier Photos Canon PT-101 - Pro Platinum - 20 feuilles A4 de 300 g/m² (2768B016AC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papier jet d’encre blanc brillant HP (914 mm x 45,7 m) (C6036A) </t>
-  </si>
-  <si>
-    <t>Papier Photo Canon + encre  KP-108IN - 108 tirages (3115B001AA)</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
+    <t>Papier Photo Canon + encre KP-108IN - 108 tirages (3115B001AA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    &lt;div id="ccs-inline-content"&gt;
+&lt;div id="inline-dd97df" class="ccs-cc-inline ccs-cc-inline-eps ccs-cc-lang-frfra ccs-cc-block-inline" style="position: relative;"&gt;
+&lt;div class="ccs-clear"&gt;&lt;/div&gt;
+&lt;div id="top-dd97df" data-ccs-cc-inline-jumplink="Haut" data-ccs-jumplink-hidden="true"&gt;&lt;/div&gt;
+&lt;div id="header-dd97df" data-elementid="inline-content-header[eps]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Présentation" class="ccs-cc-inline-section ccs-cc-inline-header" data-display-mode="noheader"&gt;
+&lt;h2 class="ccs-cc-inline-section-title"&gt;Premium Matte Label - Die-cut Roll: 76mm x 51mm, 650 labels&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-header-layout" data-type="text media"&gt;
+&lt;div class="ccs-cc-inline-header-description"&gt;
+Étiquettes Premium mates couchées à jet d'encre pour impression photo standard haute qualité avec encres pigmentées.
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-header-hero"&gt;
+&lt;img alt="Premium Matte Label - Die-cut Roll: 76mm x 51mm, 650 labels" src="https://cdn.cs.1worldsync.com/syndication/feeds/epson/inline-content/consumable_paper/7/9/79987D90DE025DF85DEF83B2A359D38B9B5E5A1A_w_400_hero.jpg" style="visibility: visible;"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="media-dd97df" data-elementid="inline-content-gallery[eps]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Galerie" class="ccs-cc-inline-section ccs-cc-inline-media" data-display-mode="withheader"&gt;
+&lt;h2 class="ccs-cc-inline-section-title" data-ccs-jumplink-container="true"&gt;Galerie&lt;/h2&gt;
+&lt;div class="ccs-cc-ig ccs-cc-ig-cloud"&gt;
+&lt;div class="ccs-cc-ig-cloud-viewport first-slide last-slide"&gt;&lt;div class="ccs-cc-ig-viewport-slide ccs-ig-cloud-active" data-slide-index="0"&gt;&lt;a class="ccs-cc-viewport-slide-wrapper" href="https://cdn.cs.1worldsync.com/syndication/feeds/epson/inline-content/consumable_paper/7/9/79987D90DE025DF85DEF83B2A359D38B9B5E5A1A_gallery.jpg" data-media-type="image"&gt;&lt;img class="ccs-cc-ig-viewport-preview" src="https://cdn.cs.1worldsync.com/syndication/feeds/epson/inline-content/consumable_paper/7/9/79987D90DE025DF85DEF83B2A359D38B9B5E5A1A_gallery.jpg" alt="diapositive 1 sur 1, agrandir l'image, premium matte label - die-cut roll: 76mm x 51mm, 650 labels"&gt;&lt;/a&gt;&lt;/div&gt;
+&lt;button type="button" aria-label="afficher l'image précédente" class="ccs-ig-viewport-arrow ccs-slick-arrow ccs-slick-prev"&gt;&lt;span&gt;&lt;/span&gt;&lt;/button&gt;
+&lt;button type="button" aria-label="afficher l'image suivante" class="ccs-ig-viewport-arrow ccs-slick-arrow ccs-slick-next"&gt;&lt;span&gt;&lt;/span&gt;&lt;/button&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div data-elementid="inline-content-features[eps]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Points clés" class="ccs-cc-inline-section ccs-cc-inline-features" data-display-mode="noheader"&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;Leur surface blanche lisse et brillante à la finition mate associée aux encres pigmentaires Epson DURABrite Ultra assure un séchage rapide ainsi qu’une excellente résistance aux frottements, à l’eau et à la chaleur. L'adhésif universel acrylique permanent garantit une performance sans incident et une bonne adhérence sur une grande diversité de surfaces, même à basse température.&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;Suggestions d’utilisation&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;• Étiquettes à code-barres&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;• Étiquettes d’emballage de produits de consommation&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;• Étiquettes de pièces détachées&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;• Étiquettes de rayon pour le commerce&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;• Étiquettes de pharmacie&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;• Étiquettes d’échantillons pour le secteur de la santé&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;• Étiquettes d’expédition&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="compatibleitems-dd97df" data-elementid="inline-content-compatible-items[eps]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Unités compatibles" class="ccs-cc-inline-section ccs-cc-inline-compatibleitems" data-display-mode="expanded"&gt;
+&lt;h2 class="ccs-cc-inline-section-title" data-ccs-jumplink-container="true"&gt;
+&lt;a class="ccs-cc-inline-acc-header" title="Unités compatibles" href="javascript:;" data-ccs-cc-inline-acc-id="compatibleitems-dd97df" data-ccs-cc-inline-acc-state="expanded" aria-expanded="true" aria-label="Unités compatibles hides content"&gt;
+&lt;span class="ccs-cc-inline-acc-icon"&gt;&lt;/span&gt;
+&lt;span&gt;Unités compatibles&lt;/span&gt;
+&lt;/a&gt;
+&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-acc-content" data-ccs-cc-inline-acc-id="compatibleitems-dd97df" style="display: block;"&gt;
+&lt;div class="ccs-cc-inline-compatibleitems-row"&gt;
+&lt;div&gt;ColorWorks C3500 (012)&lt;/div&gt;
+&lt;div&gt;ColorWorks C3500 (012CD) (incl. NiceLabel CD)&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-compatibleitems-row"&gt;
+&lt;div&gt;CW-C4000e (bk)&lt;/div&gt;
+&lt;div&gt;CW-C4000e (mk)&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="specification-dd97df" data-elementid="inline-content-specifications[eps]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Spécifications" class="ccs-cc-inline-section ccs-cc-inline-specifications" data-display-mode="collapsed"&gt;
+&lt;h2 class="ccs-cc-inline-section-title" data-ccs-jumplink-container="true"&gt;
+&lt;a class="ccs-cc-inline-acc-header" title="Spécifications" href="javascript:;" data-ccs-cc-inline-acc-id="specification-dd97df" data-ccs-cc-inline-acc-state="collapsed" aria-expanded="false" aria-label="Spécifications shows more content"&gt;
+&lt;span class="ccs-cc-inline-acc-icon"&gt;&lt;/span&gt;
+&lt;span&gt;Spécifications&lt;/span&gt;
+&lt;/a&gt;
+&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-acc-content" data-ccs-cc-inline-acc-id="specification-dd97df" style="display: none;"&gt;
+&lt;table&gt;
+&lt;tbody&gt;&lt;tr&gt;
+&lt;th colspan="2" scope="colgroup" class="ccs-cc-inline-specs-group"&gt;
+Technologie
+&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Catégorie de papier
+&lt;/th&gt;
+&lt;td&gt;
+Papier en rouleaux
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Type de papier
+&lt;/th&gt;
+&lt;td&gt;
+Étiquette Premium Matte
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Gamme de papier
+&lt;/th&gt;
+&lt;td&gt;
+Desktop Inkjet Label - Label Paper
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Application du papier
+&lt;/th&gt;
+&lt;td&gt;
+Santé et pharmacie, Logistique
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Label Size
+&lt;/th&gt;
+&lt;td&gt;
+76 mm x 51 mm
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Labels per Roll
+&lt;/th&gt;
+&lt;td&gt;
+650
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Label Format
+&lt;/th&gt;
+&lt;td&gt;
+Die-Cut Label
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;th colspan="2" scope="colgroup" class="ccs-cc-inline-specs-group"&gt;
+Emballage
+&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Nombre de rouleaux
+&lt;/th&gt;
+&lt;td&gt;
+18&amp;nbsp;Rolls
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;th colspan="2" scope="colgroup" class="ccs-cc-inline-specs-group"&gt;
+Média
+&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Core Size
+&lt;/th&gt;
+&lt;td&gt;
+1.8" (46mm)
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;&lt;/table&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-ensure-style-loaded" style="display: none; width: 0px; height: 0px;"&gt;&lt;/div&gt;
+&lt;div dir="ltr" class="resize-sensor" style="pointer-events: none; position: absolute; inset: 0px; overflow: hidden; z-index: -1; visibility: hidden; max-width: 100%;"&gt;&lt;div class="resize-sensor-expand" style="pointer-events: none; position: absolute; left: 0px; top: 0px; right: 0; bottom: 0; overflow: hidden; z-index: -1; visibility: hidden; max-width: 100%;"&gt;&lt;div style="position: absolute; left: 0px; top: 0px; transition: all 0s ease 0s; width: 1380px; height: 1460px;"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="resize-sensor-shrink" style="pointer-events: none; position: absolute; left: 0px; top: 0px; right: 0; bottom: 0; overflow: hidden; z-index: -1; visibility: hidden; max-width: 100%;"&gt;&lt;div style="position: absolute; left: 0; top: 0; transition: 0s; width: 200%; height: 200%"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;
+                    &lt;script&gt;
                       var ccs_cc_args = ccs_cc_args || [];
                     ccs_cc_args.push(['cpn', 'CPN']);
                     ccs_cc_args.push(['mf', 'Epson']);
@@ -113,18 +327,262 @@
                     var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
                     })();
                     &lt;/script&gt;
-&lt;p class="description_image"&gt;
-&lt;picture&gt;
-&lt;source height="1279" srcset="/img/description/12670-rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.webp" type="image/webp" width="1180"/&gt;
-&lt;img alt="Acheter Rouleau étiquette Epson Premium Matte 76mm x 51mm, 650 étiquettes pour C3500/3400 (C33S045534) Maroc" height="1279" loading="lazy" src="/img/description/12670-rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.webp" width="1180"/&gt;
-&lt;/picture&gt;
-&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
+                        &lt;p class="description_image"&gt;
+                    &lt;picture&gt;
+                &lt;source type="image/webp" srcset="/img/description/12670-rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.webp" width="1180" height="1279"&gt;
+                &lt;img loading="lazy" src="/img/description/12670-rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.webp" alt="Acheter Rouleau étiquette Epson Premium Matte 76mm x 51mm, 650 étiquettes pour C3500/3400 (C33S045534) Maroc" width="1180" height="1279"&gt;
+            &lt;/picture&gt;
+            &lt;/p&gt;
+                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    &lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
+                    &lt;script&gt;
+                      var ccs_cc_args = ccs_cc_args || [];
+                    ccs_cc_args.push(['cpn', 'CPN']);
+                    ccs_cc_args.push(['mf', 'Canon']);
+                    ccs_cc_args.push(['pn', '2768B016AC']);
+                    ccs_cc_args.push(['lang', 'fr']);
+                    ccs_cc_args.push(['market', 'FR']);
+                    (function () {
+                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
+                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
+                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
+                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
+                    })();
+                    &lt;/script&gt;
+                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    &lt;div id="ccs-inline-content"&gt;
+&lt;div id="inline-2ebce3" class="ccs-cc-inline ccs-cc-inline-hp ccs-cc-inline-custom ccs-cc-lang-frmar ccs-cc-block-inline" max-width="1400px 1600px" style="position: relative;"&gt;
+&lt;div class="ccs-clear"&gt;&lt;/div&gt;
+&lt;div id="top-2ebce3" data-ccs-cc-inline-jumplink="Haut" data-ccs-jumplink-hidden="true"&gt;&lt;/div&gt;
+&lt;div id="media-2ebce3" data-elementid="inline-content-gallery[hp]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Galerie" class="ccs-cc-inline-section ccs-cc-inline-media" data-display-mode="withheader"&gt;
+&lt;h2 class="ccs-cc-inline-section-title" data-ccs-jumplink-container="true"&gt;Galerie&lt;/h2&gt;
+&lt;div class="ccs-cc-ig ccs-cc-ig-cloud"&gt;
+&lt;div class="ccs-cc-ig-cloud-viewport first-slide"&gt;&lt;div class="ccs-cc-ig-viewport-slide ccs-ig-cloud-active" data-slide-index="0"&gt;&lt;a class="ccs-cc-viewport-slide-wrapper" tabindex="-1" href="javascript:;" data-media-type="image"&gt;&lt;img class="ccs-cc-ig-viewport-preview" tabindex="0" src="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/F/1/8/D/1/F18D14A2037DE5A55503523EB1F1339D2F683C4B_gallery.jpg" alt="diapositive 1 sur 2, agrandir l'image, papier photo à dos adhésif hp sprocket, 20 feuilles, 5 x 7,6 cm (2 x 3 po)"&gt;&lt;/a&gt;&lt;/div&gt;
+&lt;button type="button" aria-label="afficher l'image précédente" class="ccs-ig-viewport-arrow ccs-slick-arrow ccs-slick-prev"&gt;&lt;span&gt;&lt;/span&gt;&lt;/button&gt;
+&lt;button type="button" aria-label="afficher l'image suivante" class="ccs-ig-viewport-arrow ccs-slick-arrow ccs-slick-next"&gt;&lt;span&gt;&lt;/span&gt;&lt;/button&gt;
+&lt;/div&gt;
+&lt;div class="ccs-slick-initialized ccs-slick-slider"&gt;
+&lt;div class="ccs-slick-list"&gt;&lt;div class="ccs-slick-track" style="opacity: 1; width: 264px; transform: translate3d(0px, 0px, 0px);"&gt;&lt;div class="ccs-slick-slide ccs-slick-current ccs-slick-active ccs-ig-cloud-active" data-media-type="image" data-image-url="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/F/1/8/D/1/F18D14A2037DE5A55503523EB1F1339D2F683C4B_gallery.jpg" data-caption="" data-ccs-fancybox="media-2ebce3" data-src="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/F/1/8/D/1/F18D14A2037DE5A55503523EB1F1339D2F683C4B_gallery.jpg" style="width: 132px;" data-slick-index="0" aria-hidden="false" tabindex="-1"&gt;
+&lt;a class="ccs-cc-thumbnail-wrapper" href="javascript:;" tabindex="0" disabled="disabled"&gt;
+&lt;img src="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/F/1/8/D/1/F18D14A2037DE5A55503523EB1F1339D2F683C4B_gallerytn.jpg" alt="diapositive 1 sur 2, zoom avant, papier photo à dos adhésif hp sprocket, 20 feuilles, 5 x 7,6 cm (2 x 3 po)" class="" style="opacity: 1;"&gt;
+&lt;/a&gt;&lt;span class="ccs-cc-thumbnail-wrapper"&gt;
+&lt;img src="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/F/1/8/D/1/F18D14A2037DE5A55503523EB1F1339D2F683C4B_gallerytn.jpg" alt="diapositive 1 sur 2, zoom avant, papier photo à dos adhésif hp sprocket, 20 feuilles, 5 x 7,6 cm (2 x 3 po)" class="" style="opacity: 1;"&gt;
+&lt;/span&gt;
+&lt;/div&gt;&lt;div class="ccs-slick-slide ccs-slick-active" data-media-type="image" data-image-url="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/2/2/7/2/1/22721FFAAAB6E2C5B99CF59F989E9EC922826496_gallery.jpg" data-caption="" data-ccs-fancybox="media-2ebce3" data-src="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/2/2/7/2/1/22721FFAAAB6E2C5B99CF59F989E9EC922826496_gallery.jpg" style="width: 132px;" data-slick-index="1" aria-hidden="false" tabindex="-1"&gt;
+&lt;a class="ccs-cc-thumbnail-wrapper" href="javascript:;" tabindex="0"&gt;
+&lt;img src="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/2/2/7/2/1/22721FFAAAB6E2C5B99CF59F989E9EC922826496_gallerytn.jpg" alt="diapositive 2 sur 2, zoom avant, papier photo à dos adhésif hp sprocket, 20 feuilles, 5 x 7,6 cm (2 x 3 po)" class="" style="opacity: 1;"&gt;
+&lt;/a&gt;&lt;span class="ccs-cc-thumbnail-wrapper"&gt;
+&lt;img src="https://cdn.cs.1worldsync.com/syndication/feeds/hp/inline-content/AU/2/2/7/2/1/22721FFAAAB6E2C5B99CF59F989E9EC922826496_gallerytn.jpg" alt="diapositive 2 sur 2, zoom avant, papier photo à dos adhésif hp sprocket, 20 feuilles, 5 x 7,6 cm (2 x 3 po)" class="" style="opacity: 1;"&gt;
+&lt;/span&gt;
+&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div data-elementid="inline-content-features[hp]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Points clés" class="ccs-cc-inline-section ccs-cc-inline-features" data-display-mode="noheader"&gt;
+&lt;h2&gt;Spécifications principales&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-multicolumn" data-count="4" data-media="false"&gt;
+&lt;div class="ccs-cc-inline-feature" style=""&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="0"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="1"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="2"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="3"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="0"&gt;&lt;!--
+--&gt;&lt;h3&gt;Dimensions des supports&lt;/h3&gt;50 x 76&amp;nbsp;mm&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="1"&gt;&lt;!--
+--&gt;&lt;h3&gt;Nombre de feuilles par paquet&lt;/h3&gt;20&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="2"&gt;&lt;!--
+--&gt;&lt;h3&gt;Finition du support&lt;/h3&gt;Glacé&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="3"&gt;&lt;!--
+--&gt;&lt;h3&gt;Grammage des supports d'impression&lt;/h3&gt;290 g/m&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div data-elementid="inline-content-features[hp]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Points clés" class="ccs-cc-inline-section ccs-cc-inline-features" data-display-mode="noheader"&gt;
+&lt;h2&gt;Présentation du produit&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;Transformez vos moments favoris en instantanés ou en autocollants 5 x 7,6 cm (2 x 3 po) résistants aux taches et riches en couleurs grâce au papier Photo HP ZINK&lt;sup&gt;™&lt;/sup&gt;. Chargez facilement le papier dans votre imprimante photo HP Sprocket et commencez à imprimer des photos à partager avec votre famille et vos amis.&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-multicolumn" data-count="2" data-media="false"&gt;
+&lt;div class="ccs-cc-inline-feature" style=""&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="0"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="1"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="0"&gt;&lt;!--
+--&gt;&lt;h3&gt;Tirages instantanés&lt;/h3&gt;Impressions instantanées, exclusivement pour HP Sprocket et HP Sprocket 2-en-1.&lt;sup&gt;&lt;a id="ccs-f1inline-2ebce3" href="#ccs-ft1inline-2ebce3"&gt;1&lt;/a&gt;&lt;/sup&gt; Non compatible avec HP Sprocket Plus.&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="1"&gt;&lt;!--
+--&gt;&lt;h3&gt;Autocollants imprimables&lt;/h3&gt;Détachez le revêtement et entourez-vous d'autocollants qui vous rappelleront vos meilleurs souvenirs.&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-multicolumn" data-count="2" data-media="false"&gt;
+&lt;div class="ccs-cc-inline-feature" style=""&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="0"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="0"&gt;&lt;!--
+--&gt;&lt;h3&gt;Des couleurs vives, des impressions durables&lt;/h3&gt;Dès que vos photos sortent de l’imprimante, elles sont résistantes aux taches, à l’eau et aux déchirures.&lt;sup&gt;&lt;a id="ccs-f1inline-2ebce3" href="#ccs-ft1inline-2ebce3"&gt;1&lt;/a&gt;&lt;/sup&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;h2&gt;Contenu&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-multicolumn" data-count="2" data-media="false"&gt;
+&lt;div class="ccs-cc-inline-feature" style=""&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-thumbnail" data-order="0"&gt;&lt;!--
+--&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description" data-order="0"&gt;&lt;!--
+--&gt;&lt;h3&gt;Contenu de l'emballage&lt;/h3&gt;&lt;ul data-inline-hp-inbox=""&gt;&lt;li&gt;2 paquets de 10 feuilles de papier photo de 5 x 7,6 cm (2 x 3 po)&lt;/li&gt;&lt;/ul&gt;&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;h2&gt;Garantie&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-features-block ccs-cc-inline-single-feature"&gt;
+&lt;div class="ccs-cc-inline-feature" data-type="text"&gt;
+&lt;div class="ccs-cc-inline-feature-content ccs-cc-inline-feature-description"&gt;&lt;!--
+--&gt;Garantie de 6&amp;nbsp;mois à compter de la date d’achat. Pour plus d’informations, consultez le site http://www.support.hp.com.&lt;!--
+--&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="specification-2ebce3" data-elementid="inline-content-specifications[hp]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Spécifications" class="ccs-cc-inline-section ccs-cc-inline-specifications" data-display-mode="expanded"&gt;
+&lt;h2 class="ccs-cc-inline-section-title" data-ccs-jumplink-container="true"&gt;
+&lt;a class="ccs-cc-inline-acc-header" title="Spécifications" href="javascript:;" data-ccs-cc-inline-acc-id="specification-2ebce3" data-ccs-cc-inline-acc-state="expanded" aria-expanded="true" aria-label="Spécifications hides content"&gt;
+&lt;span class="ccs-cc-inline-acc-icon"&gt;&lt;/span&gt;
+&lt;span&gt;Spécifications&lt;/span&gt;
+&lt;/a&gt;
+&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-acc-content" data-ccs-cc-inline-acc-id="specification-2ebce3" style="display: block;"&gt;
+&lt;table&gt;
+&lt;tbody&gt;&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Dimensions des supports
+&lt;/th&gt;
+&lt;td&gt;
+50 x 76&amp;nbsp;mm
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Nombre de feuilles par paquet
+&lt;/th&gt;
+&lt;td&gt;
+20
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Finition du support
+&lt;/th&gt;
+&lt;td&gt;
+Glacé
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Grammage des supports d'impression
+&lt;/th&gt;
+&lt;td&gt;
+290 g/m²
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Plage de températures en fonctionnement
+&lt;/th&gt;
+&lt;td&gt;
+20 à 25°C
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Température de stockage
+&lt;/th&gt;
+&lt;td&gt;
+20 à 25°C
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Plage d'humidité à l’arrêt
+&lt;/th&gt;
+&lt;td&gt;
+30 à 70% d’humidité relative
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Dimensions de l'emballage (L x P x H)
+&lt;/th&gt;
+&lt;td&gt;
+65 x 17 x 124 mm
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Poids du carton/paquet
+&lt;/th&gt;
+&lt;td&gt;
+0,03 kg
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr class="ccs-cc-inline-specs-row"&gt;
+&lt;th class="ccs-cc-inline-specification-attribute" scope="row"&gt;
+Compatibilité matérielle
+&lt;/th&gt;
+&lt;td&gt;
+Pour une utilisation avec HP Sprocket et HP Sprocket 2-en-1
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;&lt;/table&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="footnotes-2ebce3" data-elementid="inline-content-footnotes[hp]" data-context="{&amp;quot;mobile&amp;quot;:false}" data-ccs-cc-inline-jumplink="Notes de bas de page" class="ccs-cc-inline-section ccs-cc-inline-footer" data-display-mode="expanded"&gt;
+&lt;h2 class="ccs-cc-inline-section-title" data-ccs-jumplink-container="true"&gt;
+&lt;a class="ccs-cc-inline-acc-header" title="Notes de bas de page" href="javascript:;" data-ccs-cc-inline-acc-id="footnotes-2ebce3" data-ccs-cc-inline-acc-state="expanded" aria-expanded="true" aria-label="Notes de bas de page hides content"&gt;
+&lt;span class="ccs-cc-inline-acc-icon"&gt;&lt;/span&gt;
+&lt;span&gt;Notes de bas de page&lt;/span&gt;
+&lt;/a&gt;
+&lt;/h2&gt;
+&lt;div class="ccs-cc-inline-acc-content" data-ccs-cc-inline-acc-id="footnotes-2ebce3" style="display: block;"&gt;
+&lt;div class="ccs-cc-inline-footer-notes"&gt;
+&lt;div&gt;
+&lt;sup data-ccs-note-id=""&gt;&lt;a id="ccs-ft1inline-2ebce3" href="#ccs-f1inline-2ebce3"&gt;&lt;span class="ccs-off-screen"&gt;footnote&lt;/span&gt;1&lt;/a&gt;&lt;/sup&gt;
+&lt;span&gt;Application HP Sprocket requise.&lt;/span&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-footer-legals"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ccs-cc-inline-ensure-style-loaded" style="display: none; width: 0px; height: 0px;"&gt;&lt;/div&gt;
+&lt;div dir="ltr" class="resize-sensor" style="pointer-events: none; position: absolute; inset: 0px; overflow: hidden; z-index: -1; visibility: hidden; max-width: 100%;"&gt;&lt;div class="resize-sensor-expand" style="pointer-events: none; position: absolute; left: 0px; top: 0px; right: 0; bottom: 0; overflow: hidden; z-index: -1; visibility: hidden; max-width: 100%;"&gt;&lt;div style="position: absolute; left: 0px; top: 0px; transition: all 0s ease 0s; width: 1380px; height: 1782px;"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="resize-sensor-shrink" style="pointer-events: none; position: absolute; left: 0px; top: 0px; right: 0; bottom: 0; overflow: hidden; z-index: -1; visibility: hidden; max-width: 100%;"&gt;&lt;div style="position: absolute; left: 0; top: 0; transition: 0s; width: 200%; height: 200%"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;/div&gt;
+                    &lt;script&gt;
                       var ccs_cc_args = ccs_cc_args || [];
                     ccs_cc_args.push(['cpn', 'CPN']);
                     ccs_cc_args.push(['mf', 'HP']);
@@ -138,12 +596,31 @@
                     var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
                     })();
                     &lt;/script&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
+                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    &lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
+                    &lt;script&gt;
+                      var ccs_cc_args = ccs_cc_args || [];
+                    ccs_cc_args.push(['cpn', 'CPN']);
+                    ccs_cc_args.push(['mf', 'HP']);
+                    ccs_cc_args.push(['pn', 'C6036A']);
+                    ccs_cc_args.push(['lang', 'fr']);
+                    ccs_cc_args.push(['market', 'MA']);
+                    (function () {
+                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
+                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
+                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
+                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
+                    })();
+                    &lt;/script&gt;
+                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    &lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
+                    &lt;script&gt;
                       var ccs_cc_args = ccs_cc_args || [];
                     ccs_cc_args.push(['cpn', 'CPN']);
                     ccs_cc_args.push(['mf', 'Canon']);
@@ -157,50 +634,12 @@
                     var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
                     })();
                     &lt;/script&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
-                      var ccs_cc_args = ccs_cc_args || [];
-                    ccs_cc_args.push(['cpn', 'CPN']);
-                    ccs_cc_args.push(['mf', 'Canon']);
-                    ccs_cc_args.push(['pn', '2768B016AC']);
-                    ccs_cc_args.push(['lang', 'fr']);
-                    ccs_cc_args.push(['market', 'FR']);
-                    (function () {
-                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
-                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
-                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
-                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
-                    })();
-                    &lt;/script&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
-                      var ccs_cc_args = ccs_cc_args || [];
-                    ccs_cc_args.push(['cpn', 'CPN']);
-                    ccs_cc_args.push(['mf', 'HP']);
-                    ccs_cc_args.push(['pn', 'C6036A']);
-                    ccs_cc_args.push(['lang', 'fr']);
-                    ccs_cc_args.push(['market', 'MA']);
-                    (function () {
-                    var o = ccs_cc_args; o.push(['_SKey', 'a6b0457b']); o.push(['_ZoneId', 'hp-auto-pp']);
-                    var sc = document.createElement('script'); sc.type = 'text/javascript'; sc.async = true;
-                    sc.src = ('https:' == document.location.protocol ? 'https://' : 'http://') + 'cdn.cs.1worldsync.com/jsc/h1ws.js';
-                    var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
-                    })();
-                    &lt;/script&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="product-description"&gt;
-&lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
-&lt;script&gt;
+                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    &lt;div id="ccs-inline-content"&gt;&lt;/div&gt;
+                    &lt;script&gt;
                       var ccs_cc_args = ccs_cc_args || [];
                     ccs_cc_args.push(['cpn', 'CPN']);
                     ccs_cc_args.push(['mf', 'Canon']);
@@ -214,67 +653,697 @@
                     var n = document.getElementsByTagName('script')[0]; n.parentNode.insertBefore(sc, n);
                     })();
                     &lt;/script&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Transformez vos moments favoris en &lt;sup&gt;&lt;a href="https://www.iris.ma/12089-papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.html"&gt;1&lt;/a&gt;&lt;/sup&gt; instantanés ou en autocollants 5 x 7,6 cm (2 x 3 po) résistants aux taches et riches en couleurs grâce au papier Photo HP ZINK™. Chargez facilement le papier dans votre imprimante photo HP Sprocket et commencez à imprimer des photos à partager avec votre famille et vos amis.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Papier A4 Ultra Blanc multifonction&lt;br/&gt;Ramette &lt;sup&gt;&lt;a href="https://www.iris.ma/13520-ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.html"&gt;1&lt;/a&gt;&lt;/sup&gt; 500 Feuilles&lt;br/&gt;Papier 80g&lt;/p&gt;</t>
+                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                            &lt;div id="product-description-short-12670" itemprop="description"&gt;
+                              &lt;/div&gt;
+            &lt;div class="product-actions js-product-actions"&gt;
+                &lt;form action="https://www.iris.ma/panier" method="post" id="add-to-cart-or-refresh"&gt;
+                  &lt;input type="hidden" name="token" value="6845fb64bfb75aa507546f2e8b7fba6f"&gt;
+                  &lt;input type="hidden" name="id_product" value="12670" id="product_page_product_id"&gt;
+                  &lt;input type="hidden" name="id_customization" value="0" id="product_customization_id" class="js-product-customization-id"&gt;
+                    &lt;div class="product-variants js-product-variants"&gt;
+    &lt;div class="product-attributes js-product-attributes"&gt;
+                  &lt;div class="product-manufacturer"&gt;
+                          &lt;div class="manufacturer_image"&gt;
+                &lt;a href="https://www.iris.ma/30_epson"&gt;
+                                          &lt;img src="/img/m/30.png" class="img img-thumbnail manufacturer-logo" alt="Epson" loading="lazy" height="110"&gt;
+                                    &lt;/a&gt;
+              &lt;/div&gt;
+                      &lt;/div&gt;
+                    &lt;div class="product-condition"&gt;
+            &lt;label class="label"&gt;État: &lt;/label&gt;
+            &lt;link itemprop="itemCondition" href="https://schema.org/NewCondition"&gt;
+            &lt;span&gt;Produit neuf dans son emballage d’origine&lt;/span&gt;&lt;br&gt;
+            &lt;strong&gt;Garantie&lt;/strong&gt; : 1 an
+            &lt;br&gt;&lt;span class="expedition_iris"&gt;Vendu et expédié par iris.ma&lt;/span&gt;
+            &lt;/div&gt;
+            &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;section class="product-discounts js-product-discounts"&gt;
+  &lt;/section&gt;
+        					  &lt;div class="product-prices js-product-prices"&gt;
+                        &lt;div class="product-discount"&gt;
+            &lt;span class="regular-price"&gt;104,00&amp;nbsp;DH&lt;/span&gt;
+          &lt;/div&gt;
+      &lt;div class="product-price h5 has-discount"&gt;
+                &lt;div class="current-price"&gt;
+          &lt;span class="current-price-value" content="94"&gt;
+                                      94,00&amp;nbsp;DH
+             TTC
+          &lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+    &lt;div class="tax-shipping-delivery-label"&gt;
+                                    &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-add-to-cart js-product-add-to-cart"&gt;
+     &lt;!-- &lt;span class="control-label"&gt;Quantité&lt;/span&gt;--&gt;
+      &lt;div class="product-quantity"&gt;
+        &lt;div class="qty"&gt;
+          &lt;div class="input-group bootstrap-touchspin"&gt;&lt;span class="input-group-addon bootstrap-touchspin-prefix" style="display: none;"&gt;&lt;/span&gt;&lt;input type="number" name="qty" id="quantity_wanted" inputmode="numeric" pattern="[0-9]*" value="1" min="1" class="input-group form-control" aria-label="Quantité" style="display: block;"&gt;&lt;span class="input-group-addon bootstrap-touchspin-postfix" style="display: none;"&gt;&lt;/span&gt;&lt;span class="input-group-btn-vertical"&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-up" type="button"&gt;&lt;i class="material-icons touchspin-up"&gt;&lt;/i&gt;&lt;/button&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-down" type="button"&gt;&lt;i class="material-icons touchspin-down"&gt;&lt;/i&gt;&lt;/button&gt;&lt;/span&gt;&lt;/div&gt;
+        &lt;/div&gt;
+        &lt;div class="add"&gt;
+          &lt;button class="btn btn-primary add-to-cart" data-button-action="add-to-cart" type="submit"&gt;
+            Ajouter au panier
+          &lt;/button&gt;
+                    &lt;span class="order_via_whatsapp"&gt;Ou commander via &lt;a href="https://api.whatsapp.com/send?phone=212666951526&amp;amp;text=Bonjour%2C%0AJe%20voudrais%20commander%20le%20produit%20suivant%20via%20WhatsApp%3A%0ARouleau+%C3%A9tiquette+Epson+Premium+Matte+76mm+x+51mm%2C+650+%C3%A9tiquettes+pour+C3500%2F3400+%28C33S045534%29%0Ahttps://www.iris.ma/12670-rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.html" rel="nofollow"&gt;&lt;span class="wts-order"&gt;WhatsApp &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+      &lt;div class="clearfix"&gt;&lt;/div&gt;
+     &lt;span id="product-availability" class="js-product-availability"&gt;
+                              &lt;span class="product-available"&gt;
+			&lt;i class="material-icons"&gt;&lt;/i&gt;
+      Livré sous 2 à 5 jours
+          		  &lt;/span&gt;
+              &lt;/span&gt;
+        &lt;ul class="cs_useful_link"&gt;
+           &lt;li&gt;&lt;a href="/demander-un-devis-iris-maroc?prd=Rouleau%20%C3%A9tiquette%20Epson%20Premium%20Matte%2076mm%20x%2051mm%2C%20650%20%C3%A9tiquettes%20pour%20C3500%2F3400%20%28C33S045534%29" rel="nofollow" target="_blank"&gt;&lt;i class="fa fa-file-text"&gt;&lt;/i&gt; Demander un devis&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a style="padding-left:0" href="https://api.whatsapp.com/send?text=Rouleau+%C3%A9tiquette+Epson+Premium+Matte+76mm+x+51mm%2C+650+%C3%A9tiquettes+pour+C3500%2F3400+%28C33S045534%29%20%3A%20https://www.iris.ma/12670-rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.html" rel="nofollow"&gt;
+        &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt; Partager ce produit avec un contact sur WhatsApp
+        &lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;	&lt;a class="st-compare-button " href="#" data-id-product="12670" title="Comparer ce produit à un autre"&gt;
+				&lt;span class="st-compare-bt-content"&gt;
+			&lt;i class="fa fa-files-o"&gt;&lt;/i&gt;
+			&lt;span class="ajax_compare_text"&gt;Comparer ce produit à un autre&lt;/span&gt;
+		&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;/li&gt;
+          &lt;/ul&gt;
+    &lt;div class="product_useful_info"&gt;
+      &lt;div class="card"&gt;
+        &lt;div id="headingOne"&gt;
+          &lt;a class="product_useful_link" data-toggle="collapse" data-target="#collapseOne" aria-expanded="true" aria-controls="collapseOne" href=""&gt;
+            &lt;i class="fa fa-truck" style="font-size:18px;color:#129cb8"&gt;&lt;/i&gt;&lt;span style="margin-left:8px"&gt;Livraison rapide sur tout le Maroc (40 DH TTC)&lt;/span&gt;
+            &lt;span&gt;&lt;i class="fa fa-arrow-down" style="float:right;padding-top:5px;color:#129cb8"&gt;&lt;/i&gt;&lt;/span&gt;
+                      &lt;/a&gt;
+        &lt;/div&gt;
+        &lt;div id="collapseOne" class="collapse show" aria-labelledby="headingOne" data-parent="#accordion"&gt;
+          &lt;div class="card-body"&gt;
+          &lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;&lt;p&gt;Notre prestataire de livraison Sapress livre &lt;strong&gt;partout au Maroc&lt;/strong&gt;, même au fin fond des villages les plus reculés.&lt;br&gt;Vous serez &lt;strong&gt;averti&lt;/strong&gt;, dans un premier temps, par &lt;strong&gt;sms&lt;/strong&gt; de la date de livraison. Le livreur prendra contact avec vous par la suite, pour s'assurer que vous êtes bien sur le lieu de livraison avant son passage. Le cas échéant, il planifie avec vous un autre créneau qui vous convient mieux.&lt;/p&gt;&lt;p&gt;Le tarif de la livraison est de &lt;strong&gt;40 DH pour les colis de moins de 30 kg&lt;/strong&gt;. Pour Rabat et Témara, le prix de la livraison est de 20 DH TTC.&lt;/p&gt;
+          &lt;/div&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+                &lt;/div&gt;
+      &lt;p class="product-minimal-quantity js-product-minimal-quantity"&gt;
+              &lt;/p&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-additional-info js-product-additional-info"&gt;
+&lt;/div&gt;
+                &lt;/form&gt;
+            &lt;/div&gt;
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                            &lt;div id="product-description-short-10210" itemprop="description"&gt;
+                              &lt;/div&gt;
+            &lt;div class="product-actions js-product-actions"&gt;
+                &lt;form action="https://www.iris.ma/panier" method="post" id="add-to-cart-or-refresh"&gt;
+                  &lt;input type="hidden" name="token" value="6845fb64bfb75aa507546f2e8b7fba6f"&gt;
+                  &lt;input type="hidden" name="id_product" value="10210" id="product_page_product_id"&gt;
+                  &lt;input type="hidden" name="id_customization" value="0" id="product_customization_id" class="js-product-customization-id"&gt;
+                    &lt;div class="product-variants js-product-variants"&gt;
+    &lt;div class="product-attributes js-product-attributes"&gt;
+                  &lt;div class="product-manufacturer"&gt;
+                          &lt;div class="manufacturer_image"&gt;
+                &lt;a href="https://www.iris.ma/45_canon"&gt;
+                                          &lt;img src="/img/m/45.png" class="img img-thumbnail manufacturer-logo" alt="Canon" loading="lazy" height="110"&gt;
+                                    &lt;/a&gt;
+              &lt;/div&gt;
+                      &lt;/div&gt;
+                    &lt;div class="product-condition"&gt;
+            &lt;label class="label"&gt;État: &lt;/label&gt;
+            &lt;link itemprop="itemCondition" href="https://schema.org/NewCondition"&gt;
+            &lt;span&gt;Produit neuf dans son emballage d’origine&lt;/span&gt;&lt;br&gt;
+            &lt;strong&gt;Garantie&lt;/strong&gt; : 1 an
+            &lt;br&gt;&lt;span class="expedition_iris"&gt;Vendu et expédié par iris.ma&lt;/span&gt;
+            &lt;/div&gt;
+            &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;section class="product-discounts js-product-discounts"&gt;
+  &lt;/section&gt;
+        					  &lt;div class="product-prices js-product-prices"&gt;
+                        &lt;div class="product-discount"&gt;
+            &lt;span class="regular-price"&gt;319,00&amp;nbsp;DH&lt;/span&gt;
+          &lt;/div&gt;
+      &lt;div class="product-price h5 has-discount"&gt;
+                &lt;div class="current-price"&gt;
+          &lt;span class="current-price-value" content="298"&gt;
+                                      298,00&amp;nbsp;DH
+             TTC
+          &lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+    &lt;div class="tax-shipping-delivery-label"&gt;
+                                    &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-add-to-cart js-product-add-to-cart"&gt;
+     &lt;!-- &lt;span class="control-label"&gt;Quantité&lt;/span&gt;--&gt;
+      &lt;div class="product-quantity"&gt;
+        &lt;div class="qty"&gt;
+          &lt;div class="input-group bootstrap-touchspin"&gt;&lt;span class="input-group-addon bootstrap-touchspin-prefix" style="display: none;"&gt;&lt;/span&gt;&lt;input type="number" name="qty" id="quantity_wanted" inputmode="numeric" pattern="[0-9]*" value="1" min="1" class="input-group form-control" aria-label="Quantité" style="display: block;"&gt;&lt;span class="input-group-addon bootstrap-touchspin-postfix" style="display: none;"&gt;&lt;/span&gt;&lt;span class="input-group-btn-vertical"&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-up" type="button"&gt;&lt;i class="material-icons touchspin-up"&gt;&lt;/i&gt;&lt;/button&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-down" type="button"&gt;&lt;i class="material-icons touchspin-down"&gt;&lt;/i&gt;&lt;/button&gt;&lt;/span&gt;&lt;/div&gt;
+        &lt;/div&gt;
+        &lt;div class="add"&gt;
+          &lt;button class="btn btn-primary add-to-cart" data-button-action="add-to-cart" type="submit" disabled=""&gt;
+            Ajouter au panier
+          &lt;/button&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+            &lt;div class="js-mailalert text-center mb-1" data-url="//www.iris.ma/module/sg_notifyinstock/actions?process=add"&gt;
+        &lt;h5 class="text-danger"&gt;Prévenez-moi lorsque ce produit sera de nouveau disponible en stock : &lt;/h5&gt;
+        &lt;div class="row form-add-notif"&gt;
+                &lt;div class="form-group col-md-5"&gt;
+                    &lt;label for="inputEmail4"&gt;Par email&lt;/label&gt;
+                    &lt;input class="form-control" type="email" placeholder="Votre adresse e-mail" value=""&gt;
+                &lt;/div&gt;
+                &lt;div class="form-group col-md-5"&gt;
+                    &lt;label for="inputPassword4"&gt;Ou sur mon WhatsApp&lt;/label&gt;
+                    &lt;input class="form-control" type="tel" placeholder="+212 X XX XX XX XX"&gt;
+                &lt;/div&gt;
+        &lt;div class="form-group col-md-2"&gt;
+            &lt;button data-product="10210" data-product-attribute="0" class="btn btn-primary js-mailalert-add" rel="nofollow" style="margin-top: 33px;"&gt;
+                Envoyer
+            &lt;/button&gt;
+        &lt;/div&gt;
+        &lt;/div&gt;
+        &lt;div class="js-mailalert-alerts"&gt;&lt;/div&gt;
+        &lt;/div&gt;
+      &lt;div class="clearfix"&gt;&lt;/div&gt;
+     &lt;span id="product-availability" class="js-product-availability"&gt;
+                              &lt;span class="product-unavailable"&gt;
+			&lt;i class="material-icons"&gt;&lt;/i&gt;
+      En rupture de stock
+          		  &lt;/span&gt;
+              &lt;/span&gt;
+        &lt;ul class="cs_useful_link"&gt;
+           &lt;li&gt;&lt;a href="/demander-un-devis-iris-maroc?prd=Papier%20Photos%20Canon%20PT-101%20-%20Pro%20Platinum%20-%2020%20feuilles%20A4%20de%20300%20g%2Fm%C2%B2%20%282768B016AC%29" rel="nofollow" target="_blank"&gt;&lt;i class="fa fa-file-text"&gt;&lt;/i&gt; Demander un devis&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a style="padding-left:0" href="https://api.whatsapp.com/send?text=Papier+Photos+Canon+PT-101+-+Pro+Platinum+-+20+feuilles+A4+de+300+g%2Fm%C2%B2+%282768B016AC%29%20%3A%20https://www.iris.ma/10210-papier-photos-canon-pt-101-pro-platinum-20-feuilles-a4-de-300-g-m-2768b016ac.html" rel="nofollow"&gt;
+        &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt; Partager ce produit avec un contact sur WhatsApp
+        &lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;	&lt;a class="st-compare-button " href="#" data-id-product="10210" title="Comparer ce produit à un autre"&gt;
+				&lt;span class="st-compare-bt-content"&gt;
+			&lt;i class="fa fa-files-o"&gt;&lt;/i&gt;
+			&lt;span class="ajax_compare_text"&gt;Comparer ce produit à un autre&lt;/span&gt;
+		&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;/li&gt;
+          &lt;/ul&gt;
+    &lt;div class="product_useful_info"&gt;
+      &lt;div class="card"&gt;
+        &lt;div id="headingOne"&gt;
+          &lt;a class="product_useful_link" data-toggle="collapse" data-target="#collapseOne" aria-expanded="true" aria-controls="collapseOne" href=""&gt;
+            &lt;i class="fa fa-truck" style="font-size:18px;color:#129cb8"&gt;&lt;/i&gt;&lt;span style="margin-left:8px"&gt;Livraison rapide sur tout le Maroc (40 DH TTC)&lt;/span&gt;
+            &lt;span&gt;&lt;i class="fa fa-arrow-down" style="float:right;padding-top:5px;color:#129cb8"&gt;&lt;/i&gt;&lt;/span&gt;
+                      &lt;/a&gt;
+        &lt;/div&gt;
+        &lt;div id="collapseOne" class="collapse show" aria-labelledby="headingOne" data-parent="#accordion"&gt;
+          &lt;div class="card-body"&gt;
+          &lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;&lt;p&gt;Notre prestataire de livraison Sapress livre &lt;strong&gt;partout au Maroc&lt;/strong&gt;, même au fin fond des villages les plus reculés.&lt;br&gt;Vous serez &lt;strong&gt;averti&lt;/strong&gt;, dans un premier temps, par &lt;strong&gt;sms&lt;/strong&gt; de la date de livraison. Le livreur prendra contact avec vous par la suite, pour s'assurer que vous êtes bien sur le lieu de livraison avant son passage. Le cas échéant, il planifie avec vous un autre créneau qui vous convient mieux.&lt;/p&gt;&lt;p&gt;Le tarif de la livraison est de &lt;strong&gt;40 DH pour les colis de moins de 30 kg&lt;/strong&gt;. Pour Rabat et Témara, le prix de la livraison est de 20 DH TTC.&lt;/p&gt;
+          &lt;/div&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+                &lt;/div&gt;
+      &lt;p class="product-minimal-quantity js-product-minimal-quantity"&gt;
+              &lt;/p&gt;
+  &lt;/div&gt;&lt;/form&gt;
+                    &lt;div class="product-additional-info js-product-additional-info"&gt;
+&lt;/div&gt;
+            &lt;/div&gt;
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                            &lt;div id="product-description-short-12089" itemprop="description"&gt;
+                                                                                                                                &lt;p&gt;Transformez vos moments favoris en instantanés ou en autocollants 5 x 7,6 cm (2 x 3 po) résistants aux taches et riches en couleurs grâce au papier Photo HP ZINK™. Chargez facilement &lt;sup&gt;&lt;a href="https://www.iris.ma/12089-papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.html"&gt;1&lt;/a&gt;&lt;/sup&gt; le papier dans votre imprimante photo HP Sprocket et commencez à imprimer des photos à partager avec votre famille et vos amis.&lt;/p&gt;
+                              &lt;/div&gt;
+            &lt;div class="product-actions js-product-actions"&gt;
+                &lt;form action="https://www.iris.ma/panier" method="post" id="add-to-cart-or-refresh"&gt;
+                  &lt;input type="hidden" name="token" value="6845fb64bfb75aa507546f2e8b7fba6f"&gt;
+                  &lt;input type="hidden" name="id_product" value="12089" id="product_page_product_id"&gt;
+                  &lt;input type="hidden" name="id_customization" value="0" id="product_customization_id" class="js-product-customization-id"&gt;
+                    &lt;div class="product-variants js-product-variants"&gt;
+    &lt;div class="product-attributes js-product-attributes"&gt;
+                  &lt;div class="product-manufacturer"&gt;
+                          &lt;div class="manufacturer_image"&gt;
+                &lt;a href="https://www.iris.ma/1_hp"&gt;
+                                          &lt;img src="https://www.iris.ma/themes/Electshop/assets/img/custom/HP_Business_Partner_iris_ma_SGM2I.png" class="img img-thumbnail" alt="Iris.ma partenaire de HP agréé" loading="lazy" style="padding:0" width="179" height="84"&gt;
+                                    &lt;/a&gt;
+              &lt;/div&gt;
+                      &lt;/div&gt;
+                    &lt;div class="product-condition"&gt;
+            &lt;label class="label"&gt;État: &lt;/label&gt;
+            &lt;link itemprop="itemCondition" href="https://schema.org/NewCondition"&gt;
+            &lt;span&gt;Produit neuf dans son emballage d’origine&lt;/span&gt;&lt;br&gt;
+            &lt;strong&gt;Garantie&lt;/strong&gt; : 1 an
+            &lt;br&gt;&lt;span class="expedition_iris"&gt;Vendu et expédié par iris.ma&lt;/span&gt;
+            &lt;/div&gt;
+            &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;section class="product-discounts js-product-discounts"&gt;
+  &lt;/section&gt;
+        					  &lt;div class="product-prices js-product-prices"&gt;
+                        &lt;div class="product-discount"&gt;
+            &lt;span class="regular-price"&gt;200,00&amp;nbsp;DH&lt;/span&gt;
+          &lt;/div&gt;
+      &lt;div class="product-price h5 has-discount"&gt;
+                &lt;div class="current-price"&gt;
+          &lt;span class="current-price-value" content="100"&gt;
+                                      100,00&amp;nbsp;DH
+             TTC
+          &lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+    &lt;div class="tax-shipping-delivery-label"&gt;
+                                    &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-add-to-cart js-product-add-to-cart"&gt;
+     &lt;!-- &lt;span class="control-label"&gt;Quantité&lt;/span&gt;--&gt;
+      &lt;div class="product-quantity"&gt;
+        &lt;div class="qty"&gt;
+          &lt;div class="input-group bootstrap-touchspin"&gt;&lt;span class="input-group-addon bootstrap-touchspin-prefix" style="display: none;"&gt;&lt;/span&gt;&lt;input type="number" name="qty" id="quantity_wanted" inputmode="numeric" pattern="[0-9]*" value="1" min="1" class="input-group form-control" aria-label="Quantité" style="display: block;"&gt;&lt;span class="input-group-addon bootstrap-touchspin-postfix" style="display: none;"&gt;&lt;/span&gt;&lt;span class="input-group-btn-vertical"&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-up" type="button"&gt;&lt;i class="material-icons touchspin-up"&gt;&lt;/i&gt;&lt;/button&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-down" type="button"&gt;&lt;i class="material-icons touchspin-down"&gt;&lt;/i&gt;&lt;/button&gt;&lt;/span&gt;&lt;/div&gt;
+        &lt;/div&gt;
+        &lt;div class="add"&gt;
+          &lt;button class="btn btn-primary add-to-cart" data-button-action="add-to-cart" type="submit"&gt;
+            Ajouter au panier
+          &lt;/button&gt;
+                    &lt;span class="order_via_whatsapp"&gt;Ou commander via &lt;a href="https://api.whatsapp.com/send?phone=212666951526&amp;amp;text=Bonjour%2C%0AJe%20voudrais%20commander%20le%20produit%20suivant%20via%20WhatsApp%3A%0APapier+photo+%C3%A0+dos+adh%C3%A9sif+ZINK+HP+Sprocket%2C+20+feuilles%2C+5+x+7%2C6+cm+%28W4Z13A%29%0Ahttps://www.iris.ma/12089-papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.html" rel="nofollow"&gt;&lt;span class="wts-order"&gt;WhatsApp &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+      &lt;div class="clearfix"&gt;&lt;/div&gt;
+     &lt;span id="product-availability" class="js-product-availability"&gt;
+                              &lt;span class="product-available"&gt;
+			&lt;i class="material-icons"&gt;&lt;/i&gt;
+      Livré sous 1 à 3 jours
+          		  &lt;/span&gt;
+              &lt;/span&gt;
+        &lt;ul class="cs_useful_link"&gt;
+           &lt;li&gt;&lt;a href="/demander-un-devis-iris-maroc?prd=Papier%20photo%20%C3%A0%20dos%20adh%C3%A9sif%20ZINK%20HP%20Sprocket%2C%2020%20feuilles%2C%205%20x%207%2C6%20cm%20%28W4Z13A%29" rel="nofollow" target="_blank"&gt;&lt;i class="fa fa-file-text"&gt;&lt;/i&gt; Demander un devis&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a style="padding-left:0" href="https://api.whatsapp.com/send?text=Papier+photo+%C3%A0+dos+adh%C3%A9sif+ZINK+HP+Sprocket%2C+20+feuilles%2C+5+x+7%2C6+cm+%28W4Z13A%29%20%3A%20https://www.iris.ma/12089-papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.html" rel="nofollow"&gt;
+        &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt; Partager ce produit avec un contact sur WhatsApp
+        &lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;	&lt;a class="st-compare-button " href="#" data-id-product="12089" title="Comparer ce produit à un autre"&gt;
+				&lt;span class="st-compare-bt-content"&gt;
+			&lt;i class="fa fa-files-o"&gt;&lt;/i&gt;
+			&lt;span class="ajax_compare_text"&gt;Comparer ce produit à un autre&lt;/span&gt;
+		&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;/li&gt;
+          &lt;/ul&gt;
+    &lt;div class="product_useful_info"&gt;
+      &lt;div class="card"&gt;
+        &lt;div id="headingOne"&gt;
+          &lt;a class="product_useful_link" data-toggle="collapse" data-target="#collapseOne" aria-expanded="true" aria-controls="collapseOne" href=""&gt;
+            &lt;i class="fa fa-truck" style="font-size:18px;color:#129cb8"&gt;&lt;/i&gt;&lt;span style="margin-left:8px"&gt;Livraison rapide sur tout le Maroc (40 DH TTC)&lt;/span&gt;
+            &lt;span&gt;&lt;i class="fa fa-arrow-down" style="float:right;padding-top:5px;color:#129cb8"&gt;&lt;/i&gt;&lt;/span&gt;
+                      &lt;/a&gt;
+        &lt;/div&gt;
+        &lt;div id="collapseOne" class="collapse show" aria-labelledby="headingOne" data-parent="#accordion"&gt;
+          &lt;div class="card-body"&gt;
+          &lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;&lt;p&gt;Notre prestataire de livraison Sapress livre &lt;strong&gt;partout au Maroc&lt;/strong&gt;, même au fin fond des villages les plus reculés.&lt;br&gt;Vous serez &lt;strong&gt;averti&lt;/strong&gt;, dans un premier temps, par &lt;strong&gt;sms&lt;/strong&gt; de la date de livraison. Le livreur prendra contact avec vous par la suite, pour s'assurer que vous êtes bien sur le lieu de livraison avant son passage. Le cas échéant, il planifie avec vous un autre créneau qui vous convient mieux.&lt;/p&gt;&lt;p&gt;Le tarif de la livraison est de &lt;strong&gt;40 DH pour les colis de moins de 30 kg&lt;/strong&gt;. Pour Rabat et Témara, le prix de la livraison est de 20 DH TTC.&lt;/p&gt;
+          &lt;/div&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+                  &lt;div class="card"&gt;
+        &lt;div id="headingThree"&gt;
+          &lt;a class="product_useful_link" data-toggle="collapse" data-target="#collapseThree" aria-expanded="false" aria-controls="collapseThree" href="#"&gt;
+            &lt;i class="fa fa-car" style="font-size:18px;color:#129cb8"&gt;&lt;/i&gt;&lt;span style="margin-left:8px"&gt;Disponible aussi pour un retrait immédiat à Témara (avenue
+            Hassan II)&lt;/span&gt;
+            &lt;span&gt;&lt;i class="fa fa-arrow-down" style="float:right;padding-top:5px;color:#129cb8"&gt;&lt;/i&gt;&lt;/span&gt;
+          &lt;/a&gt;
+        &lt;/div&gt;
+        &lt;div id="collapseThree" class="collapse" aria-labelledby="headingThree" data-parent="#accordion"&gt;
+          &lt;div class="card-body"&gt;
+          &lt;p&gt;Ce produit est disponible pour un &lt;strong&gt;retrait immédiat&lt;/strong&gt; dans notre point retrait à &lt;strong&gt;Témara&lt;/strong&gt;. Nos locaux sont ouverts du lundi au vendredi de 8h30 à 13h et de 14h à 18h, le samedi matin nous sommes ouverts de 8h30 à 12h30.&lt;/p&gt;&lt;p&gt;Notre point retrait se trouve au centre de Témara juste à proximité de McDonald’s et la station Afriquia: Boulevard Hassan II, Résidence Les Perles de Témara, immeuble 5, appartement 2, 12000 Témara.&lt;/p&gt;&lt;p&gt;Une fois sur place, vous avez la possibilité de payer soit en &lt;strong&gt;espèces&lt;/strong&gt;, soit par &lt;strong&gt;carte bancaire via TPE&lt;/strong&gt; ou par chèque bancaire certifié.&lt;/p&gt;
+          &lt;/div&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+          &lt;/div&gt;
+      &lt;p class="product-minimal-quantity js-product-minimal-quantity"&gt;
+              &lt;/p&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-additional-info js-product-additional-info"&gt;
+&lt;/div&gt;
+                &lt;/form&gt;
+            &lt;/div&gt;
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                            &lt;div id="product-description-short-2867" itemprop="description"&gt;
+                              &lt;/div&gt;
+            &lt;div class="product-actions js-product-actions"&gt;
+                &lt;form action="https://www.iris.ma/panier" method="post" id="add-to-cart-or-refresh"&gt;
+                  &lt;input type="hidden" name="token" value="6845fb64bfb75aa507546f2e8b7fba6f"&gt;
+                  &lt;input type="hidden" name="id_product" value="2867" id="product_page_product_id"&gt;
+                  &lt;input type="hidden" name="id_customization" value="0" id="product_customization_id" class="js-product-customization-id"&gt;
+                    &lt;div class="product-variants js-product-variants"&gt;
+    &lt;div class="product-attributes js-product-attributes"&gt;
+                  &lt;div class="product-manufacturer"&gt;
+                          &lt;div class="manufacturer_image"&gt;
+                &lt;a href="https://www.iris.ma/1_hp"&gt;
+                                          &lt;img src="https://www.iris.ma/themes/Electshop/assets/img/custom/HP_Business_Partner_iris_ma_SGM2I.png" class="img img-thumbnail" alt="Iris.ma partenaire de HP agréé" loading="lazy" style="padding:0" width="179" height="84"&gt;
+                                    &lt;/a&gt;
+              &lt;/div&gt;
+                      &lt;/div&gt;
+                    &lt;div class="product-condition"&gt;
+            &lt;label class="label"&gt;État: &lt;/label&gt;
+            &lt;link itemprop="itemCondition" href="https://schema.org/NewCondition"&gt;
+            &lt;span&gt;Produit neuf dans son emballage d’origine&lt;/span&gt;&lt;br&gt;
+            &lt;strong&gt;Garantie&lt;/strong&gt; : 1 an
+            &lt;br&gt;&lt;span class="expedition_iris"&gt;Vendu et expédié par iris.ma&lt;/span&gt;
+            &lt;/div&gt;
+            &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;section class="product-discounts js-product-discounts"&gt;
+  &lt;/section&gt;
+        					  &lt;div class="product-prices js-product-prices"&gt;
+                        &lt;div class="product-discount"&gt;
+            &lt;span class="regular-price"&gt;834,00&amp;nbsp;DH&lt;/span&gt;
+          &lt;/div&gt;
+      &lt;div class="product-price h5 has-discount"&gt;
+                &lt;div class="current-price"&gt;
+          &lt;span class="current-price-value" content="730"&gt;
+                                      730,00&amp;nbsp;DH
+             TTC
+          &lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+    &lt;div class="tax-shipping-delivery-label"&gt;
+                                    &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-add-to-cart js-product-add-to-cart"&gt;
+     &lt;!-- &lt;span class="control-label"&gt;Quantité&lt;/span&gt;--&gt;
+      &lt;div class="product-quantity"&gt;
+        &lt;div class="qty"&gt;
+          &lt;div class="input-group bootstrap-touchspin"&gt;&lt;span class="input-group-addon bootstrap-touchspin-prefix" style="display: none;"&gt;&lt;/span&gt;&lt;input type="number" name="qty" id="quantity_wanted" inputmode="numeric" pattern="[0-9]*" value="1" min="1" class="input-group form-control" aria-label="Quantité" style="display: block;"&gt;&lt;span class="input-group-addon bootstrap-touchspin-postfix" style="display: none;"&gt;&lt;/span&gt;&lt;span class="input-group-btn-vertical"&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-up" type="button"&gt;&lt;i class="material-icons touchspin-up"&gt;&lt;/i&gt;&lt;/button&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-down" type="button"&gt;&lt;i class="material-icons touchspin-down"&gt;&lt;/i&gt;&lt;/button&gt;&lt;/span&gt;&lt;/div&gt;
+        &lt;/div&gt;
+        &lt;div class="add"&gt;
+          &lt;button class="btn btn-primary add-to-cart" data-button-action="add-to-cart" type="submit"&gt;
+            Ajouter au panier
+          &lt;/button&gt;
+                    &lt;span class="order_via_whatsapp"&gt;Ou commander via &lt;a href="https://api.whatsapp.com/send?phone=212666951526&amp;amp;text=Bonjour%2C%0AJe%20voudrais%20commander%20le%20produit%20suivant%20via%20WhatsApp%3A%0APapier+jet+d%E2%80%99encre+blanc+brillant+HP+%28914+mm+x+45%2C7+m%29+%28C6036A%29+%0Ahttps://www.iris.ma/2867-papier-jet-dencre-blanc-brillant-hp-914-mm-x-457-m-c6036a.html" rel="nofollow"&gt;&lt;span class="wts-order"&gt;WhatsApp &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+      &lt;div class="clearfix"&gt;&lt;/div&gt;
+     &lt;span id="product-availability" class="js-product-availability"&gt;
+                              &lt;span class="product-available"&gt;
+			&lt;i class="material-icons"&gt;&lt;/i&gt;
+      Livré sous 2 à 5 jours
+          		  &lt;/span&gt;
+              &lt;/span&gt;
+        &lt;ul class="cs_useful_link"&gt;
+           &lt;li&gt;&lt;a href="/demander-un-devis-iris-maroc?prd=Papier%20jet%20d%E2%80%99encre%20blanc%20brillant%20HP%20%28914%20mm%20x%2045%2C7%20m%29%20%28C6036A%29%20" rel="nofollow" target="_blank"&gt;&lt;i class="fa fa-file-text"&gt;&lt;/i&gt; Demander un devis&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a style="padding-left:0" href="https://api.whatsapp.com/send?text=Papier+jet+d%E2%80%99encre+blanc+brillant+HP+%28914+mm+x+45%2C7+m%29+%28C6036A%29+%20%3A%20https://www.iris.ma/2867-papier-jet-dencre-blanc-brillant-hp-914-mm-x-457-m-c6036a.html" rel="nofollow"&gt;
+        &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt; Partager ce produit avec un contact sur WhatsApp
+        &lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;	&lt;a class="st-compare-button " href="#" data-id-product="2867" title="Comparer ce produit à un autre"&gt;
+				&lt;span class="st-compare-bt-content"&gt;
+			&lt;i class="fa fa-files-o"&gt;&lt;/i&gt;
+			&lt;span class="ajax_compare_text"&gt;Comparer ce produit à un autre&lt;/span&gt;
+		&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;/li&gt;
+          &lt;/ul&gt;
+    &lt;div class="product_useful_info"&gt;
+      &lt;div class="card"&gt;
+        &lt;div id="headingOne"&gt;
+          &lt;a class="product_useful_link" data-toggle="collapse" data-target="#collapseOne" aria-expanded="true" aria-controls="collapseOne" href=""&gt;
+            &lt;i class="fa fa-truck" style="font-size:18px;color:#129cb8"&gt;&lt;/i&gt;&lt;span style="margin-left:8px"&gt;Livraison rapide sur tout le Maroc (40 DH TTC)&lt;/span&gt;
+            &lt;span&gt;&lt;i class="fa fa-arrow-down" style="float:right;padding-top:5px;color:#129cb8"&gt;&lt;/i&gt;&lt;/span&gt;
+                      &lt;/a&gt;
+        &lt;/div&gt;
+        &lt;div id="collapseOne" class="collapse show" aria-labelledby="headingOne" data-parent="#accordion"&gt;
+          &lt;div class="card-body"&gt;
+          &lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;&lt;p&gt;Notre prestataire de livraison Sapress livre &lt;strong&gt;partout au Maroc&lt;/strong&gt;, même au fin fond des villages les plus reculés.&lt;br&gt;Vous serez &lt;strong&gt;averti&lt;/strong&gt;, dans un premier temps, par &lt;strong&gt;sms&lt;/strong&gt; de la date de livraison. Le livreur prendra contact avec vous par la suite, pour s'assurer que vous êtes bien sur le lieu de livraison avant son passage. Le cas échéant, il planifie avec vous un autre créneau qui vous convient mieux.&lt;/p&gt;&lt;p&gt;Le tarif de la livraison est de &lt;strong&gt;40 DH pour les colis de moins de 30 kg&lt;/strong&gt;. Pour Rabat et Témara, le prix de la livraison est de 20 DH TTC.&lt;/p&gt;
+          &lt;/div&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+                &lt;/div&gt;
+      &lt;p class="product-minimal-quantity js-product-minimal-quantity"&gt;
+              &lt;/p&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-additional-info js-product-additional-info"&gt;
+&lt;/div&gt;
+                &lt;/form&gt;
+            &lt;/div&gt;
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                            &lt;div id="product-description-short-13520" itemprop="description"&gt;
+                                                                                                                                &lt;p&gt;Papier A4 Ultra Blanc multifonction&lt;br&gt;Ramette 500 Feuilles&lt;br&gt;Papier &lt;sup&gt;&lt;a href="https://www.iris.ma/13520-ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.html"&gt;1&lt;/a&gt;&lt;/sup&gt; 80g&lt;/p&gt;
+                              &lt;/div&gt;
+            &lt;div class="product-actions js-product-actions"&gt;
+                &lt;form action="https://www.iris.ma/panier" method="post" id="add-to-cart-or-refresh"&gt;
+                  &lt;input type="hidden" name="token" value="6845fb64bfb75aa507546f2e8b7fba6f"&gt;
+                  &lt;input type="hidden" name="id_product" value="13520" id="product_page_product_id"&gt;
+                  &lt;input type="hidden" name="id_customization" value="0" id="product_customization_id" class="js-product-customization-id"&gt;
+                    &lt;div class="product-variants js-product-variants"&gt;
+    &lt;div class="product-attributes js-product-attributes"&gt;
+                  &lt;div class="product-manufacturer"&gt;
+                          &lt;div class="manufacturer_image"&gt;
+                &lt;a href="https://www.iris.ma/45_canon"&gt;
+                                          &lt;img src="/img/m/45.png" class="img img-thumbnail manufacturer-logo" alt="Canon" loading="lazy" height="110"&gt;
+                                    &lt;/a&gt;
+              &lt;/div&gt;
+                      &lt;/div&gt;
+                    &lt;div class="product-condition"&gt;
+            &lt;label class="label"&gt;État: &lt;/label&gt;
+            &lt;link itemprop="itemCondition" href="https://schema.org/NewCondition"&gt;
+            &lt;span&gt;Produit neuf dans son emballage d’origine&lt;/span&gt;&lt;br&gt;
+            &lt;strong&gt;Garantie&lt;/strong&gt; : 1 an
+            &lt;br&gt;&lt;span class="expedition_iris"&gt;Vendu et expédié par iris.ma&lt;/span&gt;
+            &lt;/div&gt;
+            &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;section class="product-discounts js-product-discounts"&gt;
+  &lt;/section&gt;
+        					  &lt;div class="product-prices js-product-prices"&gt;
+                        &lt;div class="product-discount"&gt;
+            &lt;span class="regular-price"&gt;143,00&amp;nbsp;DH&lt;/span&gt;
+          &lt;/div&gt;
+      &lt;div class="product-price h5 has-discount"&gt;
+                &lt;div class="current-price"&gt;
+          &lt;span class="current-price-value" content="133"&gt;
+                                      133,00&amp;nbsp;DH
+             TTC
+          &lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+    &lt;div class="tax-shipping-delivery-label"&gt;
+                                    &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-add-to-cart js-product-add-to-cart"&gt;
+     &lt;!-- &lt;span class="control-label"&gt;Quantité&lt;/span&gt;--&gt;
+      &lt;div class="product-quantity"&gt;
+        &lt;div class="qty"&gt;
+          &lt;div class="input-group bootstrap-touchspin"&gt;&lt;span class="input-group-addon bootstrap-touchspin-prefix" style="display: none;"&gt;&lt;/span&gt;&lt;input type="number" name="qty" id="quantity_wanted" inputmode="numeric" pattern="[0-9]*" value="1" min="1" class="input-group form-control" aria-label="Quantité" style="display: block;"&gt;&lt;span class="input-group-addon bootstrap-touchspin-postfix" style="display: none;"&gt;&lt;/span&gt;&lt;span class="input-group-btn-vertical"&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-up" type="button"&gt;&lt;i class="material-icons touchspin-up"&gt;&lt;/i&gt;&lt;/button&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-down" type="button"&gt;&lt;i class="material-icons touchspin-down"&gt;&lt;/i&gt;&lt;/button&gt;&lt;/span&gt;&lt;/div&gt;
+        &lt;/div&gt;
+        &lt;div class="add"&gt;
+          &lt;button class="btn btn-primary add-to-cart" data-button-action="add-to-cart" type="submit"&gt;
+            Ajouter au panier
+          &lt;/button&gt;
+                    &lt;span class="order_via_whatsapp"&gt;Ou commander via &lt;a href="https://api.whatsapp.com/send?phone=212666951526&amp;amp;text=Bonjour%2C%0AJe%20voudrais%20commander%20le%20produit%20suivant%20via%20WhatsApp%3A%0ARamette+papier+Canon+Eclat+80+-+500+feuilles+A4+de+80g%2Fm%C2%B2+%280255V273%29%0Ahttps://www.iris.ma/13520-ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.html" rel="nofollow"&gt;&lt;span class="wts-order"&gt;WhatsApp &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+      &lt;div class="clearfix"&gt;&lt;/div&gt;
+     &lt;span id="product-availability" class="js-product-availability"&gt;
+                              &lt;span class="product-available"&gt;
+			&lt;i class="material-icons"&gt;&lt;/i&gt;
+      Livré sous 2 à 5 jours
+          		  &lt;/span&gt;
+              &lt;/span&gt;
+        &lt;ul class="cs_useful_link"&gt;
+           &lt;li&gt;&lt;a href="/demander-un-devis-iris-maroc?prd=Ramette%20papier%20Canon%20Eclat%2080%20-%20500%20feuilles%20A4%20de%2080g%2Fm%C2%B2%20%280255V273%29" rel="nofollow" target="_blank"&gt;&lt;i class="fa fa-file-text"&gt;&lt;/i&gt; Demander un devis&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a style="padding-left:0" href="https://api.whatsapp.com/send?text=Ramette+papier+Canon+Eclat+80+-+500+feuilles+A4+de+80g%2Fm%C2%B2+%280255V273%29%20%3A%20https://www.iris.ma/13520-ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.html" rel="nofollow"&gt;
+        &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt; Partager ce produit avec un contact sur WhatsApp
+        &lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;	&lt;a class="st-compare-button " href="#" data-id-product="13520" title="Comparer ce produit à un autre"&gt;
+				&lt;span class="st-compare-bt-content"&gt;
+			&lt;i class="fa fa-files-o"&gt;&lt;/i&gt;
+			&lt;span class="ajax_compare_text"&gt;Comparer ce produit à un autre&lt;/span&gt;
+		&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;/li&gt;
+          &lt;/ul&gt;
+    &lt;div class="product_useful_info"&gt;
+      &lt;div class="card"&gt;
+        &lt;div id="headingOne"&gt;
+          &lt;a class="product_useful_link" data-toggle="collapse" data-target="#collapseOne" aria-expanded="true" aria-controls="collapseOne" href=""&gt;
+            &lt;i class="fa fa-truck" style="font-size:18px;color:#129cb8"&gt;&lt;/i&gt;&lt;span style="margin-left:8px"&gt;Livraison rapide sur tout le Maroc (40 DH TTC)&lt;/span&gt;
+            &lt;span&gt;&lt;i class="fa fa-arrow-down" style="float:right;padding-top:5px;color:#129cb8"&gt;&lt;/i&gt;&lt;/span&gt;
+                      &lt;/a&gt;
+        &lt;/div&gt;
+        &lt;div id="collapseOne" class="collapse show" aria-labelledby="headingOne" data-parent="#accordion"&gt;
+          &lt;div class="card-body"&gt;
+          &lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;&lt;p&gt;Notre prestataire de livraison Sapress livre &lt;strong&gt;partout au Maroc&lt;/strong&gt;, même au fin fond des villages les plus reculés.&lt;br&gt;Vous serez &lt;strong&gt;averti&lt;/strong&gt;, dans un premier temps, par &lt;strong&gt;sms&lt;/strong&gt; de la date de livraison. Le livreur prendra contact avec vous par la suite, pour s'assurer que vous êtes bien sur le lieu de livraison avant son passage. Le cas échéant, il planifie avec vous un autre créneau qui vous convient mieux.&lt;/p&gt;&lt;p&gt;Le tarif de la livraison est de &lt;strong&gt;40 DH pour les colis de moins de 30 kg&lt;/strong&gt;. Pour Rabat et Témara, le prix de la livraison est de 20 DH TTC.&lt;/p&gt;
+          &lt;/div&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+                &lt;/div&gt;
+      &lt;p class="product-minimal-quantity js-product-minimal-quantity"&gt;
+              &lt;/p&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-additional-info js-product-additional-info"&gt;
+&lt;/div&gt;
+                &lt;/form&gt;
+            &lt;/div&gt;
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                            &lt;div id="product-description-short-11617" itemprop="description"&gt;
+                              &lt;/div&gt;
+            &lt;div class="product-actions js-product-actions"&gt;
+                &lt;form action="https://www.iris.ma/panier" method="post" id="add-to-cart-or-refresh"&gt;
+                  &lt;input type="hidden" name="token" value="6845fb64bfb75aa507546f2e8b7fba6f"&gt;
+                  &lt;input type="hidden" name="id_product" value="11617" id="product_page_product_id"&gt;
+                  &lt;input type="hidden" name="id_customization" value="0" id="product_customization_id" class="js-product-customization-id"&gt;
+                    &lt;div class="product-variants js-product-variants"&gt;
+    &lt;div class="product-attributes js-product-attributes"&gt;
+                  &lt;div class="product-manufacturer"&gt;
+                          &lt;div class="manufacturer_image"&gt;
+                &lt;a href="https://www.iris.ma/45_canon"&gt;
+                                          &lt;img src="/img/m/45.png" class="img img-thumbnail manufacturer-logo" alt="Canon" loading="lazy" height="110"&gt;
+                                    &lt;/a&gt;
+              &lt;/div&gt;
+                      &lt;/div&gt;
+                    &lt;div class="product-condition"&gt;
+            &lt;label class="label"&gt;État: &lt;/label&gt;
+            &lt;link itemprop="itemCondition" href="https://schema.org/NewCondition"&gt;
+            &lt;span&gt;Produit neuf dans son emballage d’origine&lt;/span&gt;&lt;br&gt;
+            &lt;strong&gt;Garantie&lt;/strong&gt; : 1 an
+            &lt;br&gt;&lt;span class="expedition_iris"&gt;Vendu et expédié par iris.ma&lt;/span&gt;
+            &lt;/div&gt;
+            &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;section class="product-discounts js-product-discounts"&gt;
+  &lt;/section&gt;
+        					  &lt;div class="product-prices js-product-prices"&gt;
+                        &lt;div class="product-discount"&gt;
+            &lt;span class="regular-price"&gt;528,00&amp;nbsp;DH&lt;/span&gt;
+          &lt;/div&gt;
+      &lt;div class="product-price h5 has-discount"&gt;
+                &lt;div class="current-price"&gt;
+          &lt;span class="current-price-value" content="420"&gt;
+                                      420,00&amp;nbsp;DH
+             TTC
+          &lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+    &lt;div class="tax-shipping-delivery-label"&gt;
+                                    &lt;/div&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-add-to-cart js-product-add-to-cart"&gt;
+     &lt;!-- &lt;span class="control-label"&gt;Quantité&lt;/span&gt;--&gt;
+      &lt;div class="product-quantity"&gt;
+        &lt;div class="qty"&gt;
+          &lt;div class="input-group bootstrap-touchspin"&gt;&lt;span class="input-group-addon bootstrap-touchspin-prefix" style="display: none;"&gt;&lt;/span&gt;&lt;input type="number" name="qty" id="quantity_wanted" inputmode="numeric" pattern="[0-9]*" value="1" min="1" class="input-group form-control" aria-label="Quantité" style="display: block;"&gt;&lt;span class="input-group-addon bootstrap-touchspin-postfix" style="display: none;"&gt;&lt;/span&gt;&lt;span class="input-group-btn-vertical"&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-up" type="button"&gt;&lt;i class="material-icons touchspin-up"&gt;&lt;/i&gt;&lt;/button&gt;&lt;button class="btn btn-touchspin js-touchspin bootstrap-touchspin-down" type="button"&gt;&lt;i class="material-icons touchspin-down"&gt;&lt;/i&gt;&lt;/button&gt;&lt;/span&gt;&lt;/div&gt;
+        &lt;/div&gt;
+        &lt;div class="add"&gt;
+          &lt;button class="btn btn-primary add-to-cart" data-button-action="add-to-cart" type="submit"&gt;
+            Ajouter au panier
+          &lt;/button&gt;
+                    &lt;span class="order_via_whatsapp"&gt;Ou commander via &lt;a href="https://api.whatsapp.com/send?phone=212666951526&amp;amp;text=Bonjour%2C%0AJe%20voudrais%20commander%20le%20produit%20suivant%20via%20WhatsApp%3A%0APapier+Photo+Canon+%2B+encre++KP-108IN%C2%A0-+108+tirages+%283115B001AA%29%0Ahttps://www.iris.ma/11617-papier-photo-canon-encre-kp-108in-3115b001aa.html" rel="nofollow"&gt;&lt;span class="wts-order"&gt;WhatsApp &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;
+                  &lt;/div&gt;
+      &lt;/div&gt;
+      &lt;div class="clearfix"&gt;&lt;/div&gt;
+     &lt;span id="product-availability" class="js-product-availability"&gt;
+                              &lt;span class="product-available"&gt;
+			&lt;i class="material-icons"&gt;&lt;/i&gt;
+      Livré sous 2 à 5 jours
+          		  &lt;/span&gt;
+              &lt;/span&gt;
+        &lt;ul class="cs_useful_link"&gt;
+           &lt;li&gt;&lt;a href="/demander-un-devis-iris-maroc?prd=Papier%20Photo%20Canon%20%2B%20encre%20%20KP-108IN%C2%A0-%20108%20tirages%20%283115B001AA%29" rel="nofollow" target="_blank"&gt;&lt;i class="fa fa-file-text"&gt;&lt;/i&gt; Demander un devis&lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;&lt;a style="padding-left:0" href="https://api.whatsapp.com/send?text=Papier+Photo+Canon+%2B+encre++KP-108IN%C2%A0-+108+tirages+%283115B001AA%29%20%3A%20https://www.iris.ma/11617-papier-photo-canon-encre-kp-108in-3115b001aa.html" rel="nofollow"&gt;
+        &lt;i class="fa fa-whatsapp"&gt;&lt;/i&gt; Partager ce produit avec un contact sur WhatsApp
+        &lt;/a&gt;&lt;/li&gt;
+        &lt;li&gt;	&lt;a class="st-compare-button " href="#" data-id-product="11617" title="Comparer ce produit à un autre"&gt;
+				&lt;span class="st-compare-bt-content"&gt;
+			&lt;i class="fa fa-files-o"&gt;&lt;/i&gt;
+			&lt;span class="ajax_compare_text"&gt;Comparer ce produit à un autre&lt;/span&gt;
+		&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;/li&gt;
+          &lt;/ul&gt;
+    &lt;div class="product_useful_info"&gt;
+      &lt;div class="card"&gt;
+        &lt;div id="headingOne"&gt;
+          &lt;a class="product_useful_link" data-toggle="collapse" data-target="#collapseOne" aria-expanded="true" aria-controls="collapseOne" href=""&gt;
+            &lt;i class="fa fa-truck" style="font-size:18px;color:#129cb8"&gt;&lt;/i&gt;&lt;span style="margin-left:8px"&gt;Livraison rapide sur tout le Maroc (40 DH TTC)&lt;/span&gt;
+            &lt;span&gt;&lt;i class="fa fa-arrow-down" style="float:right;padding-top:5px;color:#129cb8"&gt;&lt;/i&gt;&lt;/span&gt;
+                      &lt;/a&gt;
+        &lt;/div&gt;
+        &lt;div id="collapseOne" class="collapse show" aria-labelledby="headingOne" data-parent="#accordion"&gt;
+          &lt;div class="card-body"&gt;
+          &lt;p&gt;Où que vous soyez au Maroc, nous vous livrons à &lt;strong&gt;domicile&lt;/strong&gt; ou sur votre &lt;strong&gt;lieu de travail&lt;/strong&gt; dans de brefs délais.&lt;/p&gt;&lt;p&gt;Notre prestataire de livraison Sapress livre &lt;strong&gt;partout au Maroc&lt;/strong&gt;, même au fin fond des villages les plus reculés.&lt;br&gt;Vous serez &lt;strong&gt;averti&lt;/strong&gt;, dans un premier temps, par &lt;strong&gt;sms&lt;/strong&gt; de la date de livraison. Le livreur prendra contact avec vous par la suite, pour s'assurer que vous êtes bien sur le lieu de livraison avant son passage. Le cas échéant, il planifie avec vous un autre créneau qui vous convient mieux.&lt;/p&gt;&lt;p&gt;Le tarif de la livraison est de &lt;strong&gt;40 DH pour les colis de moins de 30 kg&lt;/strong&gt;. Pour Rabat et Témara, le prix de la livraison est de 20 DH TTC.&lt;/p&gt;
+          &lt;/div&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+                &lt;/div&gt;
+      &lt;p class="product-minimal-quantity js-product-minimal-quantity"&gt;
+              &lt;/p&gt;
+  &lt;/div&gt;
+                    &lt;div class="product-additional-info js-product-additional-info"&gt;
+&lt;/div&gt;
+                &lt;/form&gt;
+            &lt;/div&gt;
+        </t>
   </si>
   <si>
     <t>C33S045534</t>
   </si>
   <si>
+    <t>2768B016AC</t>
+  </si>
+  <si>
     <t>W4Z13A</t>
   </si>
   <si>
+    <t>C6036A</t>
+  </si>
+  <si>
     <t>0255V273</t>
   </si>
   <si>
-    <t>2768B016AC</t>
-  </si>
-  <si>
-    <t>C6036A</t>
-  </si>
-  <si>
     <t>3115B001AA</t>
   </si>
   <si>
     <t>['https://www.iris.ma/51452-large_default/rouleau-etiquette-epson-premium-matte-c3500-3400-c33s045534.jpg']</t>
   </si>
   <si>
+    <t>['https://www.iris.ma/35253-large_default/papier-photos-canon-pt-101-pro-platinum-20-feuilles-a4-de-300-g-m-2768b016ac.jpg']</t>
+  </si>
+  <si>
     <t>['https://www.iris.ma/48916-large_default/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg', 'https://www.iris.ma/48916/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg', 'https://www.iris.ma/48917/papier-photo-a-dos-adhesif-zink-hp-sprocket-20-feuilles-5-x-7-6-cm-w4z13a.jpg']</t>
   </si>
   <si>
+    <t>['https://www.iris.ma/52101-large_default/papier-jet-dencre-blanc-brillant-hp-914-mm-x-457-m-c6036a.jpg']</t>
+  </si>
+  <si>
     <t>['https://www.iris.ma/55856-large_default/ramette-papier-canon-eclat-80-500-feuilles-a4-de-80g-m-0255v273.jpg']</t>
   </si>
   <si>
-    <t>['https://www.iris.ma/35253-large_default/papier-photos-canon-pt-101-pro-platinum-20-feuilles-a4-de-300-g-m-2768b016ac.jpg']</t>
-  </si>
-  <si>
-    <t>['https://www.iris.ma/52101-large_default/papier-jet-dencre-blanc-brillant-hp-914-mm-x-457-m-c6036a.jpg']</t>
-  </si>
-  <si>
     <t>['https://www.iris.ma/46942-large_default/papier-photo-canon-encre-kp-108in-3115b001aa.jpg', 'https://www.iris.ma/46942/papier-photo-canon-encre-kp-108in-3115b001aa.jpg', 'https://www.iris.ma/46943/papier-photo-canon-encre-kp-108in-3115b001aa.jpg']</t>
   </si>
   <si>
     <t>94,00</t>
   </si>
   <si>
+    <t>298,00</t>
+  </si>
+  <si>
     <t>100,00</t>
   </si>
   <si>
+    <t>730,00</t>
+  </si>
+  <si>
     <t>133,00</t>
-  </si>
-  <si>
-    <t>298,00</t>
-  </si>
-  <si>
-    <t>730,00</t>
   </si>
   <si>
     <t>420,00</t>
@@ -686,29 +1755,29 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -721,29 +1790,29 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -756,29 +1825,29 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -791,29 +1860,29 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -824,31 +1893,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -859,31 +1928,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
